--- a/esercitazione2.xlsx
+++ b/esercitazione2.xlsx
@@ -75,12 +75,6 @@
     <t>-tutte le misure sono esprese in bar</t>
   </si>
   <si>
-    <t>-SCHEMA 3:</t>
-  </si>
-  <si>
-    <t>Fino ad un certo istante di tempo t i due pulsanti sono premuti,dopo che vengono aperti commutera quello che</t>
-  </si>
-  <si>
     <t>raggiungera per primo la p1 di portata piu quella di commutazione propria della valvola.</t>
   </si>
   <si>
@@ -103,6 +97,12 @@
   </si>
   <si>
     <t>Fc3</t>
+  </si>
+  <si>
+    <t>Fino ad un certo istante di tempo t* i due pulsanti sono premuti,dopo che vengono aperti commutera quello che</t>
+  </si>
+  <si>
+    <t>-SCHEMA 5:</t>
   </si>
 </sst>
 </file>
@@ -208,8 +208,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="45">
+  <cellStyleXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -266,7 +268,7 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="45">
+  <cellStyles count="47">
     <cellStyle name="Collegamento ipertestuale" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Collegamento ipertestuale" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Collegamento ipertestuale" xfId="5" builtinId="8" hidden="1"/>
@@ -289,6 +291,7 @@
     <cellStyle name="Collegamento ipertestuale" xfId="39" builtinId="8" hidden="1"/>
     <cellStyle name="Collegamento ipertestuale" xfId="41" builtinId="8" hidden="1"/>
     <cellStyle name="Collegamento ipertestuale" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="Collegamento ipertestuale" xfId="45" builtinId="8" hidden="1"/>
     <cellStyle name="Collegamento visitato" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Collegamento visitato" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Collegamento visitato" xfId="6" builtinId="9" hidden="1"/>
@@ -311,6 +314,7 @@
     <cellStyle name="Collegamento visitato" xfId="40" builtinId="9" hidden="1"/>
     <cellStyle name="Collegamento visitato" xfId="42" builtinId="9" hidden="1"/>
     <cellStyle name="Collegamento visitato" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Collegamento visitato" xfId="46" builtinId="9" hidden="1"/>
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -538,11 +542,11 @@
         <c:dropLines/>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2120822568"/>
-        <c:axId val="2062596024"/>
+        <c:axId val="2063611816"/>
+        <c:axId val="-2139830840"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2120822568"/>
+        <c:axId val="2063611816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -591,7 +595,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2062596024"/>
+        <c:crossAx val="-2139830840"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -599,7 +603,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2062596024"/>
+        <c:axId val="-2139830840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -654,7 +658,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2120822568"/>
+        <c:crossAx val="2063611816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -896,11 +900,11 @@
         <c:dropLines/>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2062328136"/>
-        <c:axId val="2062333752"/>
+        <c:axId val="-2139776600"/>
+        <c:axId val="-2139770984"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2062328136"/>
+        <c:axId val="-2139776600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -936,7 +940,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2062333752"/>
+        <c:crossAx val="-2139770984"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -944,7 +948,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2062333752"/>
+        <c:axId val="-2139770984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1012,7 +1016,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2062328136"/>
+        <c:crossAx val="-2139776600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1059,7 +1063,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Foglio1!$A$50</c:f>
+              <c:f>Foglio1!$A$61</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1094,7 +1098,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Foglio1!$B$49:$D$49</c:f>
+              <c:f>Foglio1!$B$60:$D$60</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -1111,7 +1115,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Foglio1!$B$50:$D$50</c:f>
+              <c:f>Foglio1!$B$61:$D$61</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -1134,7 +1138,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Foglio1!$A$51</c:f>
+              <c:f>Foglio1!$A$62</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1145,7 +1149,7 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>Foglio1!$B$49:$D$49</c:f>
+              <c:f>Foglio1!$B$60:$D$60</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -1162,7 +1166,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Foglio1!$B$51:$D$51</c:f>
+              <c:f>Foglio1!$B$62:$D$62</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -1185,7 +1189,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Foglio1!$A$52</c:f>
+              <c:f>Foglio1!$A$63</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1196,7 +1200,7 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>Foglio1!$B$49:$D$49</c:f>
+              <c:f>Foglio1!$B$60:$D$60</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -1213,7 +1217,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Foglio1!$B$52:$D$52</c:f>
+              <c:f>Foglio1!$B$63:$D$63</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -1232,7 +1236,6 @@
           <c:smooth val="0"/>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="ctr"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -1243,11 +1246,11 @@
         <c:hiLowLines/>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2078826536"/>
-        <c:axId val="2079229080"/>
+        <c:axId val="-2139729800"/>
+        <c:axId val="-2139724232"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2078826536"/>
+        <c:axId val="-2139729800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1283,7 +1286,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2079229080"/>
+        <c:crossAx val="-2139724232"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1291,7 +1294,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2079229080"/>
+        <c:axId val="-2139724232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1334,7 +1337,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2078826536"/>
+        <c:crossAx val="-2139729800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1421,15 +1424,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>16933</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>16934</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>186266</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>440266</xdr:colOff>
-      <xdr:row>66</xdr:row>
-      <xdr:rowOff>33867</xdr:rowOff>
+      <xdr:colOff>423333</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>8466</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1446,6 +1449,50 @@
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>59266</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>33867</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>572118</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>118533</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Immagine 1" descr="Schermata 2017-05-31 alle 00.11.09.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="59266" y="7433734"/>
+          <a:ext cx="4661519" cy="3784599"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -1773,10 +1820,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K52"/>
+  <dimension ref="A1:K63"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="G46" sqref="G46"/>
+    <sheetView tabSelected="1" topLeftCell="A50" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2002,88 +2049,88 @@
     </row>
     <row r="36" spans="1:9">
       <c r="A36" s="4" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="B36" s="5"/>
       <c r="C36" s="5"/>
     </row>
     <row r="37" spans="1:9">
       <c r="A37" s="2" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
     </row>
     <row r="38" spans="1:9">
       <c r="A38" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H38" t="s">
         <v>20</v>
       </c>
-      <c r="H38" t="s">
+      <c r="I38" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B59" s="5"/>
+      <c r="C59" s="5"/>
+      <c r="D59" s="5"/>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="I38" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9">
-      <c r="A48" s="4" t="s">
+      <c r="B60" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C60" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D60" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B48" s="5"/>
-      <c r="C48" s="5"/>
-      <c r="D48" s="5"/>
-    </row>
-    <row r="49" spans="1:4">
-      <c r="A49" s="6" t="s">
+      <c r="B61" s="8">
+        <v>1</v>
+      </c>
+      <c r="C61" s="8">
+        <v>1</v>
+      </c>
+      <c r="D61" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B49" s="7" t="s">
+      <c r="B62" s="8">
         <v>1</v>
       </c>
-      <c r="C49" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="D49" s="7" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
-      <c r="A50" s="6" t="s">
+      <c r="C62" s="8">
+        <v>1</v>
+      </c>
+      <c r="D62" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B50" s="8">
+      <c r="B63" s="8">
         <v>1</v>
       </c>
-      <c r="C50" s="8">
+      <c r="C63" s="8">
         <v>1</v>
       </c>
-      <c r="D50" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
-      <c r="A51" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B51" s="8">
-        <v>1</v>
-      </c>
-      <c r="C51" s="8">
-        <v>1</v>
-      </c>
-      <c r="D51" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
-      <c r="A52" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="B52" s="8">
-        <v>1</v>
-      </c>
-      <c r="C52" s="8">
-        <v>1</v>
-      </c>
-      <c r="D52" s="8">
+      <c r="D63" s="8">
         <v>1</v>
       </c>
     </row>
